--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,29 +446,45 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(R$ Milhões)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1T21</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1T20</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Var.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Var.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Var.</t>
         </is>
       </c>
     </row>
@@ -478,47 +494,61 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GMV Total Bruto (e-commerce e Lojas)</t>
+          <t>(R$ mil)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.332</t>
+          <t>1T21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.135</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27,0%</t>
-        </is>
-      </c>
+          <t>1T20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4T20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>LTM-1T21</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>LTM-1T20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GMV Lojas Físicas Bruto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5.327</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.890</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(9,6%)</t>
+          <t>1T21/1T20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1T21/4T20</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>LTM</t>
         </is>
       </c>
     </row>
@@ -528,22 +558,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vendas Digitais Brutas 1</t>
+          <t>Receita Líquida de Software</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.775</t>
+          <t>51.259</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.642</t>
+          <t>34.979</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>118,6%</t>
+          <t>46,5%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>40.813</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>25,6%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>162.224</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>131.234</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23,6%</t>
         </is>
       </c>
     </row>
@@ -553,22 +608,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Participação (%) Vendas Digitas</t>
+          <t>Bancos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>21.656</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>18.597</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+23,4p.p.</t>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22.182</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>81.805</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>73.052</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>12,0%</t>
         </is>
       </c>
     </row>
@@ -578,22 +658,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GMV e-commerce Bruto 2 (1P + 3P)</t>
+          <t>Fundos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.005</t>
+          <t>5.387</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.245</t>
+          <t>4.479</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>123,0%</t>
+          <t>20,3%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.226</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>19.646</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>16.961</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -603,22 +708,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GMV Bruto 2 (1P)</t>
+          <t>Previdência</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.967</t>
+          <t>9.094</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.780</t>
+          <t>9.239</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>122,8%</t>
+          <t>-1,6%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.862</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>35.605</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>31.074</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>14,6%</t>
         </is>
       </c>
     </row>
@@ -628,22 +758,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GMV Marketplace (3P)</t>
+          <t>Consórcio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.741</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>2.664</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>123,5%</t>
+          <t>-34,7%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.078</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-16,2%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9.320</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10.147</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-8,2%</t>
         </is>
       </c>
     </row>
@@ -653,222 +808,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Participação Marketplace no GMV Total</t>
+          <t>Inorgânico</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>13.382</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+4,3p.p.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Receita Bruta</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8.797</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.426</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>18,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Receita Líquida</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>7.547</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.339</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>19,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Margem Bruta</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>31,4%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>30,7%</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>+0,7p.p.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EBITDA Ajustado</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>621</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>(6,0%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Margem EBITDA Ajustada</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>7,7%</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9,8%</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>(2,1p.p.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LAIR</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>211,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>IR&amp;CS³</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>(4)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Lucro Líquido</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1284,6%</t>
+          <t>n.a</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.465</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>442,8%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15.847</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>n.a</t>
         </is>
       </c>
     </row>
